--- a/Data_clean/MCAS/Estados_US/Edos_USA_2019/NEW_JERSEY_2019.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2019/NEW_JERSEY_2019.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1244"/>
+  <dimension ref="A1:D1238"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -400,7 +400,7 @@
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C3">
@@ -413,7 +413,7 @@
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C4">
@@ -641,7 +641,7 @@
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C20">
@@ -719,7 +719,7 @@
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C26">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C31">
@@ -979,7 +979,7 @@
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C46">
@@ -1096,7 +1096,7 @@
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C55">
@@ -1109,7 +1109,7 @@
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C56">
@@ -1592,7 +1592,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1649,7 +1649,7 @@
     <row r="96">
       <c r="B96" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C96">
@@ -1875,7 +1875,7 @@
     <row r="113">
       <c r="B113" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C113">
@@ -1901,7 +1901,7 @@
     <row r="115">
       <c r="B115" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C115">
@@ -1966,12 +1966,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C120">
@@ -2010,7 +2010,7 @@
     <row r="123">
       <c r="B123" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C123">
@@ -2023,7 +2023,7 @@
     <row r="124">
       <c r="B124" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C124">
@@ -2088,7 +2088,7 @@
     <row r="129">
       <c r="B129" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C129">
@@ -2166,7 +2166,7 @@
     <row r="135">
       <c r="B135" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C135">
@@ -2205,7 +2205,7 @@
     <row r="138">
       <c r="B138" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C138">
@@ -2283,7 +2283,7 @@
     <row r="144">
       <c r="B144" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C144">
@@ -2335,7 +2335,7 @@
     <row r="148">
       <c r="B148" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C148">
@@ -2491,7 +2491,7 @@
     <row r="160">
       <c r="B160" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C160">
@@ -2582,7 +2582,7 @@
     <row r="167">
       <c r="B167" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C167">
@@ -2595,7 +2595,7 @@
     <row r="168">
       <c r="B168" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C168">
@@ -2738,7 +2738,7 @@
     <row r="179">
       <c r="B179" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C179">
@@ -2842,7 +2842,7 @@
     <row r="187">
       <c r="B187" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C187">
@@ -2907,7 +2907,7 @@
     <row r="192">
       <c r="B192" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C192">
@@ -2920,7 +2920,7 @@
     <row r="193">
       <c r="B193" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C193">
@@ -2933,7 +2933,7 @@
     <row r="194">
       <c r="B194" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C194">
@@ -3042,7 +3042,7 @@
     <row r="202">
       <c r="B202" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C202">
@@ -3055,7 +3055,7 @@
     <row r="203">
       <c r="B203" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C203">
@@ -3068,7 +3068,7 @@
     <row r="204">
       <c r="B204" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C204">
@@ -3263,7 +3263,7 @@
     <row r="219">
       <c r="B219" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C219">
@@ -3289,7 +3289,7 @@
     <row r="221">
       <c r="B221" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C221">
@@ -3302,7 +3302,7 @@
     <row r="222">
       <c r="B222" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C222">
@@ -3328,7 +3328,7 @@
     <row r="224">
       <c r="B224" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C224">
@@ -3367,7 +3367,7 @@
     <row r="227">
       <c r="B227" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C227">
@@ -3424,7 +3424,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C231">
@@ -3450,7 +3450,7 @@
     <row r="233">
       <c r="B233" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C233">
@@ -3463,7 +3463,7 @@
     <row r="234">
       <c r="B234" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C234">
@@ -3515,7 +3515,7 @@
     <row r="238">
       <c r="B238" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C238">
@@ -3528,7 +3528,7 @@
     <row r="239">
       <c r="B239" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C239">
@@ -3554,7 +3554,7 @@
     <row r="241">
       <c r="B241" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C241">
@@ -3567,7 +3567,7 @@
     <row r="242">
       <c r="B242" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C242">
@@ -3593,7 +3593,7 @@
     <row r="244">
       <c r="B244" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C244">
@@ -3606,7 +3606,7 @@
     <row r="245">
       <c r="B245" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C245">
@@ -3619,7 +3619,7 @@
     <row r="246">
       <c r="B246" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C246">
@@ -3632,7 +3632,7 @@
     <row r="247">
       <c r="B247" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C247">
@@ -3684,7 +3684,7 @@
     <row r="251">
       <c r="B251" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C251">
@@ -3697,7 +3697,7 @@
     <row r="252">
       <c r="B252" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C252">
@@ -3749,7 +3749,7 @@
     <row r="256">
       <c r="B256" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C256">
@@ -3762,7 +3762,7 @@
     <row r="257">
       <c r="B257" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C257">
@@ -3827,7 +3827,7 @@
     <row r="262">
       <c r="B262" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C262">
@@ -3840,7 +3840,7 @@
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C263">
@@ -3866,7 +3866,7 @@
     <row r="265">
       <c r="B265" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C265">
@@ -3879,7 +3879,7 @@
     <row r="266">
       <c r="B266" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C266">
@@ -3905,7 +3905,7 @@
     <row r="268">
       <c r="B268" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C268">
@@ -3944,7 +3944,7 @@
     <row r="271">
       <c r="B271" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C271">
@@ -4113,7 +4113,7 @@
     <row r="284">
       <c r="B284" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C284">
@@ -4139,7 +4139,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C286">
@@ -4165,7 +4165,7 @@
     <row r="288">
       <c r="B288" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C288">
@@ -4191,7 +4191,7 @@
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C290">
@@ -4243,7 +4243,7 @@
     <row r="294">
       <c r="B294" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C294">
@@ -4256,7 +4256,7 @@
     <row r="295">
       <c r="B295" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C295">
@@ -4456,7 +4456,7 @@
     <row r="310">
       <c r="B310" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C310">
@@ -4534,7 +4534,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C316">
@@ -4612,7 +4612,7 @@
     <row r="322">
       <c r="B322" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C322">
@@ -4651,7 +4651,7 @@
     <row r="325">
       <c r="B325" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C325">
@@ -4703,7 +4703,7 @@
     <row r="329">
       <c r="B329" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C329">
@@ -4716,7 +4716,7 @@
     <row r="330">
       <c r="B330" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C330">
@@ -4729,7 +4729,7 @@
     <row r="331">
       <c r="B331" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C331">
@@ -4742,7 +4742,7 @@
     <row r="332">
       <c r="B332" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C332">
@@ -4755,7 +4755,7 @@
     <row r="333">
       <c r="B333" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C333">
@@ -4768,7 +4768,7 @@
     <row r="334">
       <c r="B334" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C334">
@@ -4794,7 +4794,7 @@
     <row r="336">
       <c r="B336" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C336">
@@ -4820,7 +4820,7 @@
     <row r="338">
       <c r="B338" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C338">
@@ -4833,7 +4833,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C339">
@@ -4872,7 +4872,7 @@
     <row r="342">
       <c r="B342" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C342">
@@ -4898,7 +4898,7 @@
     <row r="344">
       <c r="B344" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C344">
@@ -4911,7 +4911,7 @@
     <row r="345">
       <c r="B345" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C345">
@@ -4937,7 +4937,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C347">
@@ -5002,7 +5002,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C352">
@@ -5015,7 +5015,7 @@
     <row r="353">
       <c r="B353" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C353">
@@ -5028,7 +5028,7 @@
     <row r="354">
       <c r="B354" t="inlineStr">
         <is>
-          <t>Villa de Tezontepec</t>
+          <t>Villa De Tezontepec</t>
         </is>
       </c>
       <c r="C354">
@@ -5054,7 +5054,7 @@
     <row r="356">
       <c r="B356" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C356">
@@ -5067,7 +5067,7 @@
     <row r="357">
       <c r="B357" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C357">
@@ -5176,7 +5176,7 @@
     <row r="365">
       <c r="B365" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C365">
@@ -5228,7 +5228,7 @@
     <row r="369">
       <c r="B369" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C369">
@@ -5319,7 +5319,7 @@
     <row r="376">
       <c r="B376" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C376">
@@ -5332,7 +5332,7 @@
     <row r="377">
       <c r="B377" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C377">
@@ -5371,7 +5371,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C380">
@@ -5384,7 +5384,7 @@
     <row r="381">
       <c r="B381" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C381">
@@ -5462,7 +5462,7 @@
     <row r="387">
       <c r="B387" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C387">
@@ -5636,7 +5636,7 @@
     <row r="400">
       <c r="B400" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C400">
@@ -6234,7 +6234,7 @@
     <row r="446">
       <c r="B446" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C446">
@@ -6551,7 +6551,7 @@
     <row r="470">
       <c r="B470" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C470">
@@ -6603,7 +6603,7 @@
     <row r="474">
       <c r="B474" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C474">
@@ -6655,7 +6655,7 @@
     <row r="478">
       <c r="B478" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C478">
@@ -6681,7 +6681,7 @@
     <row r="480">
       <c r="B480" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C480">
@@ -6785,7 +6785,7 @@
     <row r="488">
       <c r="B488" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C488">
@@ -6816,7 +6816,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C490">
@@ -6842,7 +6842,7 @@
     <row r="492">
       <c r="B492" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C492">
@@ -7034,7 +7034,7 @@
     <row r="506">
       <c r="B506" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C506">
@@ -7073,7 +7073,7 @@
     <row r="509">
       <c r="B509" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C509">
@@ -7125,7 +7125,7 @@
     <row r="513">
       <c r="B513" t="inlineStr">
         <is>
-          <t>Capulálpam de Méndez</t>
+          <t>Capulálpam De Méndez</t>
         </is>
       </c>
       <c r="C513">
@@ -7151,7 +7151,7 @@
     <row r="515">
       <c r="B515" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C515">
@@ -7190,7 +7190,7 @@
     <row r="518">
       <c r="B518" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C518">
@@ -7203,7 +7203,7 @@
     <row r="519">
       <c r="B519" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C519">
@@ -7229,7 +7229,7 @@
     <row r="521">
       <c r="B521" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerrero</t>
+          <t>Cuilápam De Guerrero</t>
         </is>
       </c>
       <c r="C521">
@@ -7242,7 +7242,7 @@
     <row r="522">
       <c r="B522" t="inlineStr">
         <is>
-          <t>Fresnillo de Trujano</t>
+          <t>Fresnillo De Trujano</t>
         </is>
       </c>
       <c r="C522">
@@ -7255,7 +7255,7 @@
     <row r="523">
       <c r="B523" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C523">
@@ -7268,7 +7268,7 @@
     <row r="524">
       <c r="B524" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C524">
@@ -7281,7 +7281,7 @@
     <row r="525">
       <c r="B525" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C525">
@@ -7294,7 +7294,7 @@
     <row r="526">
       <c r="B526" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C526">
@@ -7320,7 +7320,7 @@
     <row r="528">
       <c r="B528" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C528">
@@ -7333,7 +7333,7 @@
     <row r="529">
       <c r="B529" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C529">
@@ -7424,7 +7424,7 @@
     <row r="536">
       <c r="B536" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C536">
@@ -7437,7 +7437,7 @@
     <row r="537">
       <c r="B537" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C537">
@@ -7476,7 +7476,7 @@
     <row r="540">
       <c r="B540" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C540">
@@ -7502,7 +7502,7 @@
     <row r="542">
       <c r="B542" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C542">
@@ -7528,7 +7528,7 @@
     <row r="544">
       <c r="B544" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C544">
@@ -7541,7 +7541,7 @@
     <row r="545">
       <c r="B545" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C545">
@@ -7554,7 +7554,7 @@
     <row r="546">
       <c r="B546" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C546">
@@ -7580,7 +7580,7 @@
     <row r="548">
       <c r="B548" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C548">
@@ -7593,7 +7593,7 @@
     <row r="549">
       <c r="B549" t="inlineStr">
         <is>
-          <t>Reforma de Pineda</t>
+          <t>Reforma De Pineda</t>
         </is>
       </c>
       <c r="C549">
@@ -7658,7 +7658,7 @@
     <row r="554">
       <c r="B554" t="inlineStr">
         <is>
-          <t>San Agustín de las Juntas</t>
+          <t>San Agustín De Las Juntas</t>
         </is>
       </c>
       <c r="C554">
@@ -7801,7 +7801,7 @@
     <row r="565">
       <c r="B565" t="inlineStr">
         <is>
-          <t>San Antonio de la Cal</t>
+          <t>San Antonio De La Cal</t>
         </is>
       </c>
       <c r="C565">
@@ -7931,7 +7931,7 @@
     <row r="575">
       <c r="B575" t="inlineStr">
         <is>
-          <t>San Dionisio del Mar</t>
+          <t>San Dionisio Del Mar</t>
         </is>
       </c>
       <c r="C575">
@@ -8165,7 +8165,7 @@
     <row r="593">
       <c r="B593" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C593">
@@ -8269,7 +8269,7 @@
     <row r="601">
       <c r="B601" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C601">
@@ -8360,7 +8360,7 @@
     <row r="608">
       <c r="B608" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C608">
@@ -8724,7 +8724,7 @@
     <row r="636">
       <c r="B636" t="inlineStr">
         <is>
-          <t>San Mateo del Mar</t>
+          <t>San Mateo Del Mar</t>
         </is>
       </c>
       <c r="C636">
@@ -8841,7 +8841,7 @@
     <row r="645">
       <c r="B645" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C645">
@@ -9101,7 +9101,7 @@
     <row r="665">
       <c r="B665" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C665">
@@ -9387,7 +9387,7 @@
     <row r="687">
       <c r="B687" t="inlineStr">
         <is>
-          <t>Santa Ana del Valle</t>
+          <t>Santa Ana Del Valle</t>
         </is>
       </c>
       <c r="C687">
@@ -9582,7 +9582,7 @@
     <row r="702">
       <c r="B702" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C702">
@@ -9660,7 +9660,7 @@
     <row r="708">
       <c r="B708" t="inlineStr">
         <is>
-          <t>Santa Lucía del Camino</t>
+          <t>Santa Lucía Del Camino</t>
         </is>
       </c>
       <c r="C708">
@@ -9803,7 +9803,7 @@
     <row r="719">
       <c r="B719" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C719">
@@ -10440,7 +10440,7 @@
     <row r="768">
       <c r="B768" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C768">
@@ -10661,7 +10661,7 @@
     <row r="785">
       <c r="B785" t="inlineStr">
         <is>
-          <t>Tanetze de Zaragoza</t>
+          <t>Tanetze De Zaragoza</t>
         </is>
       </c>
       <c r="C785">
@@ -10674,7 +10674,7 @@
     <row r="786">
       <c r="B786" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C786">
@@ -10687,7 +10687,7 @@
     <row r="787">
       <c r="B787" t="inlineStr">
         <is>
-          <t>Teococuilco de Marcos Pérez</t>
+          <t>Teococuilco De Marcos Pérez</t>
         </is>
       </c>
       <c r="C787">
@@ -10713,7 +10713,7 @@
     <row r="789">
       <c r="B789" t="inlineStr">
         <is>
-          <t>Tepelmeme Villa de Morelos</t>
+          <t>Tepelmeme Villa De Morelos</t>
         </is>
       </c>
       <c r="C789">
@@ -10726,7 +10726,7 @@
     <row r="790">
       <c r="B790" t="inlineStr">
         <is>
-          <t>Tezoatlán de Segura y Luna</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C790">
@@ -10739,7 +10739,7 @@
     <row r="791">
       <c r="B791" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C791">
@@ -10765,7 +10765,7 @@
     <row r="793">
       <c r="B793" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C793">
@@ -10804,7 +10804,7 @@
     <row r="796">
       <c r="B796" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C796">
@@ -10817,7 +10817,7 @@
     <row r="797">
       <c r="B797" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C797">
@@ -10830,7 +10830,7 @@
     <row r="798">
       <c r="B798" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C798">
@@ -10843,7 +10843,7 @@
     <row r="799">
       <c r="B799" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C799">
@@ -10882,7 +10882,7 @@
     <row r="802">
       <c r="B802" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C802">
@@ -10921,7 +10921,7 @@
     <row r="805">
       <c r="B805" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C805">
@@ -11251,7 +11251,7 @@
     <row r="830">
       <c r="B830" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C830">
@@ -11368,7 +11368,7 @@
     <row r="839">
       <c r="B839" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C839">
@@ -11485,7 +11485,7 @@
     <row r="848">
       <c r="B848" t="inlineStr">
         <is>
-          <t>Cuapiaxtla de Madero</t>
+          <t>Cuapiaxtla De Madero</t>
         </is>
       </c>
       <c r="C848">
@@ -11537,7 +11537,7 @@
     <row r="852">
       <c r="B852" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C852">
@@ -11550,7 +11550,7 @@
     <row r="853">
       <c r="B853" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C853">
@@ -11745,7 +11745,7 @@
     <row r="868">
       <c r="B868" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C868">
@@ -11758,7 +11758,7 @@
     <row r="869">
       <c r="B869" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C869">
@@ -11797,7 +11797,7 @@
     <row r="872">
       <c r="B872" t="inlineStr">
         <is>
-          <t>Huitzilan de Serdán</t>
+          <t>Huitzilan De Serdán</t>
         </is>
       </c>
       <c r="C872">
@@ -11810,7 +11810,7 @@
     <row r="873">
       <c r="B873" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C873">
@@ -11849,7 +11849,7 @@
     <row r="876">
       <c r="B876" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C876">
@@ -11992,7 +11992,7 @@
     <row r="887">
       <c r="B887" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C887">
@@ -12005,7 +12005,7 @@
     <row r="888">
       <c r="B888" t="inlineStr">
         <is>
-          <t>Mazapiltepec de Juárez</t>
+          <t>Mazapiltepec De Juárez</t>
         </is>
       </c>
       <c r="C888">
@@ -12122,7 +12122,7 @@
     <row r="897">
       <c r="B897" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C897">
@@ -12239,7 +12239,7 @@
     <row r="906">
       <c r="B906" t="inlineStr">
         <is>
-          <t>San Diego la Mesa Tochimiltzingo</t>
+          <t>San Diego La Mesa Tochimiltzingo</t>
         </is>
       </c>
       <c r="C906">
@@ -12447,7 +12447,7 @@
     <row r="922">
       <c r="B922" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C922">
@@ -12499,7 +12499,7 @@
     <row r="926">
       <c r="B926" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C926">
@@ -12512,7 +12512,7 @@
     <row r="927">
       <c r="B927" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C927">
@@ -12564,7 +12564,7 @@
     <row r="931">
       <c r="B931" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C931">
@@ -12668,7 +12668,7 @@
     <row r="939">
       <c r="B939" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C939">
@@ -12681,7 +12681,7 @@
     <row r="940">
       <c r="B940" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C940">
@@ -12759,7 +12759,7 @@
     <row r="946">
       <c r="B946" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C946">
@@ -12785,7 +12785,7 @@
     <row r="948">
       <c r="B948" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C948">
@@ -12850,7 +12850,7 @@
     <row r="953">
       <c r="B953" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C953">
@@ -13045,7 +13045,7 @@
     <row r="968">
       <c r="B968" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C968">
@@ -13284,7 +13284,7 @@
       </c>
       <c r="B986" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C986">
@@ -13310,7 +13310,7 @@
     <row r="988">
       <c r="B988" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C988">
@@ -13323,7 +13323,7 @@
     <row r="989">
       <c r="B989" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C989">
@@ -13336,7 +13336,7 @@
     <row r="990">
       <c r="B990" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C990">
@@ -13375,7 +13375,7 @@
     <row r="993">
       <c r="B993" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C993">
@@ -14281,7 +14281,7 @@
     <row r="1060">
       <c r="B1060" t="inlineStr">
         <is>
-          <t>Amaxac de Guerrero</t>
+          <t>Amaxac De Guerrero</t>
         </is>
       </c>
       <c r="C1060">
@@ -14333,7 +14333,7 @@
     <row r="1064">
       <c r="B1064" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C1064">
@@ -14424,7 +14424,7 @@
     <row r="1071">
       <c r="B1071" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1071">
@@ -14437,7 +14437,7 @@
     <row r="1072">
       <c r="B1072" t="inlineStr">
         <is>
-          <t>Mazatecochco de José María Morelos</t>
+          <t>Mazatecochco De José María Morelos</t>
         </is>
       </c>
       <c r="C1072">
@@ -14450,7 +14450,7 @@
     <row r="1073">
       <c r="B1073" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1073">
@@ -14489,7 +14489,7 @@
     <row r="1076">
       <c r="B1076" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C1076">
@@ -14502,7 +14502,7 @@
     <row r="1077">
       <c r="B1077" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1077">
@@ -14606,7 +14606,7 @@
     <row r="1085">
       <c r="B1085" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C1085">
@@ -14645,7 +14645,7 @@
     <row r="1088">
       <c r="B1088" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C1088">
@@ -14897,7 +14897,7 @@
     <row r="1107">
       <c r="B1107" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1107">
@@ -14975,7 +14975,7 @@
     <row r="1113">
       <c r="B1113" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1113">
@@ -15027,7 +15027,7 @@
     <row r="1117">
       <c r="B1117" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C1117">
@@ -15196,7 +15196,7 @@
     <row r="1130">
       <c r="B1130" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1130">
@@ -15209,7 +15209,7 @@
     <row r="1131">
       <c r="B1131" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C1131">
@@ -15417,7 +15417,7 @@
     <row r="1147">
       <c r="B1147" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1147">
@@ -15430,7 +15430,7 @@
     <row r="1148">
       <c r="B1148" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1148">
@@ -15482,7 +15482,7 @@
     <row r="1152">
       <c r="B1152" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1152">
@@ -15495,7 +15495,7 @@
     <row r="1153">
       <c r="B1153" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1153">
@@ -15573,7 +15573,7 @@
     <row r="1159">
       <c r="B1159" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1159">
@@ -15612,7 +15612,7 @@
     <row r="1162">
       <c r="B1162" t="inlineStr">
         <is>
-          <t>Landero y Coss</t>
+          <t>Landero Y Coss</t>
         </is>
       </c>
       <c r="C1162">
@@ -15638,7 +15638,7 @@
     <row r="1164">
       <c r="B1164" t="inlineStr">
         <is>
-          <t>Las Vigas de Ramírez</t>
+          <t>Las Vigas De Ramírez</t>
         </is>
       </c>
       <c r="C1164">
@@ -15664,7 +15664,7 @@
     <row r="1166">
       <c r="B1166" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1166">
@@ -15716,7 +15716,7 @@
     <row r="1170">
       <c r="B1170" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C1170">
@@ -15833,7 +15833,7 @@
     <row r="1179">
       <c r="B1179" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1179">
@@ -15872,7 +15872,7 @@
     <row r="1182">
       <c r="B1182" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1182">
@@ -15963,7 +15963,7 @@
     <row r="1189">
       <c r="B1189" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1189">
@@ -16002,7 +16002,7 @@
     <row r="1192">
       <c r="B1192" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1192">
@@ -16301,7 +16301,7 @@
     <row r="1215">
       <c r="B1215" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1215">
@@ -16379,7 +16379,7 @@
     <row r="1221">
       <c r="B1221" t="inlineStr">
         <is>
-          <t>Zontecomatlán de López y Fuentes</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C1221">
@@ -16532,7 +16532,7 @@
     <row r="1232">
       <c r="B1232" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1232">
@@ -16618,41 +16618,6 @@
       </c>
       <c r="D1238">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1240">
-      <c r="A1240" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 800,811</t>
-        </is>
-      </c>
-    </row>
-    <row r="1241">
-      <c r="A1241" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1242">
-      <c r="A1242" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1243">
-      <c r="A1243" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1244">
-      <c r="A1244" t="inlineStr">
-        <is>
-          <t>Abril de 2020</t>
-        </is>
       </c>
     </row>
   </sheetData>
